--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CV-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F787886-9F58-4F3C-B086-02DFCA89B040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ADF8B0-5CD4-4826-A3BE-B3D043CA6525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="9420"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -134,12 +134,16 @@
   </si>
   <si>
     <t>huawei p30</t>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,10 +1088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1200,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -1211,13 +1217,25 @@
       <c r="Q2" t="s">
         <v>19</v>
       </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
       <c r="T2" t="s">
         <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1256,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1266,12 +1284,6 @@
       </c>
       <c r="Q3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -1279,7 +1291,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1293,6 +1305,9 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
@@ -1326,19 +1341,19 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
       <c r="T4" t="s">
         <v>20</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1352,9 +1367,6 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
@@ -1387,12 +1399,6 @@
       </c>
       <c r="Q5" t="s">
         <v>19</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
       </c>
       <c r="T5" t="s">
         <v>20</v>
@@ -1406,7 +1412,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1420,6 +1426,9 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
@@ -1453,48 +1462,114 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
       <c r="T6" t="s">
         <v>20</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CV-datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ADF8B0-5CD4-4826-A3BE-B3D043CA6525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664102AB-DA5C-42EC-BE5E-4A384618EC1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="0" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>Model</t>
   </si>
@@ -43,9 +43,6 @@
     <t>sensor</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>galaxy s10</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>resolution</t>
   </si>
   <si>
-    <t>jack</t>
-  </si>
-  <si>
     <t>speaker</t>
   </si>
   <si>
@@ -136,7 +130,51 @@
     <t>huawei p30</t>
   </si>
   <si>
-    <t>all</t>
+    <t>camara</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lense</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fordable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bixby</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1089,15 +1127,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1123,22 +1164,22 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -1159,412 +1200,428 @@
         <v>6</v>
       </c>
       <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
+      <c r="X3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
       <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
+      <c r="W4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s">
         <v>24</v>
       </c>
-      <c r="T4" t="s">
-        <v>20</v>
+      <c r="Z4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
         <v>15</v>
       </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="W5" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" t="s">
+      <c r="W6" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" t="s">
-        <v>27</v>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s">
         <v>30</v>
       </c>
-      <c r="V7" t="s">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CV-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664102AB-DA5C-42EC-BE5E-4A384618EC1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50DA29-2664-4F3B-ADB0-789303CC92F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="0" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,6 @@
     <t>huawei p30</t>
   </si>
   <si>
-    <t>camara</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>lense</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -175,6 +171,10 @@
   </si>
   <si>
     <t>panel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -1209,19 +1209,19 @@
         <v>6</v>
       </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -1259,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
         <v>12</v>
@@ -1289,7 +1289,7 @@
         <v>18</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -1327,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -1363,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
@@ -1401,13 +1401,13 @@
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1431,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="X4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
         <v>24</v>
@@ -1457,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
@@ -1475,13 +1475,13 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="X5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s">
         <v>24</v>
@@ -1537,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1546,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -1555,13 +1555,13 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="X6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA6" t="s">
         <v>28</v>
